--- a/essy-database/sample1.xlsx
+++ b/essy-database/sample1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11027"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10402"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emmaadams/Documents/DXG/ESSY-Database/essy-database/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shium/Developer/i3/ESSY-Database/essy-database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91B40E68-27D1-394A-9414-65C014E0DDA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91FAB8A8-767F-0B4C-A5F7-C88754A56AC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="500" windowWidth="28800" windowHeight="15820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20" yWindow="860" windowWidth="28800" windowHeight="15820" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Qualtrics Output" sheetId="1" r:id="rId1"/>
@@ -5822,7 +5822,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:EX41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="DO3" zoomScale="132" workbookViewId="0">
+    <sheetView topLeftCell="DN5" zoomScale="132" workbookViewId="0">
       <selection activeCell="DW6" sqref="DW6"/>
     </sheetView>
   </sheetViews>
@@ -8296,7 +8296,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1874C270-73BC-3A44-B333-C9F7DD1BF0CA}">
   <dimension ref="A1:Y122"/>
   <sheetViews>
-    <sheetView topLeftCell="C37" zoomScale="125" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="125" workbookViewId="0">
       <selection activeCell="C38" sqref="C38:G38"/>
     </sheetView>
   </sheetViews>
@@ -10700,7 +10700,7 @@
       <c r="U74" s="51"/>
       <c r="V74" s="51"/>
     </row>
-    <row r="75" spans="1:25" s="24" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:25" s="24" customFormat="1" ht="14" x14ac:dyDescent="0.2">
       <c r="A75" s="130" t="s">
         <v>698</v>
       </c>
@@ -12288,6 +12288,17 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="b16925a2-092a-4b0c-80b0-60aa8207cf9e" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="7f609dec-f5f3-4daa-ad8f-d79c97d43c87">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FB3B212E3891B64D8E554AD2A8ABD1E0" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5afba5338ef968ce22dcf291d714e934">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="7f609dec-f5f3-4daa-ad8f-d79c97d43c87" xmlns:ns3="b16925a2-092a-4b0c-80b0-60aa8207cf9e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="bc0dac04dcb3dbcf66891a19d5fb0053" ns2:_="" ns3:_="">
     <xsd:import namespace="7f609dec-f5f3-4daa-ad8f-d79c97d43c87"/>
@@ -12516,17 +12527,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="b16925a2-092a-4b0c-80b0-60aa8207cf9e" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="7f609dec-f5f3-4daa-ad8f-d79c97d43c87">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -12537,6 +12537,23 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{02C0A60A-E9F6-4356-B490-6C805E531F47}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="b16925a2-092a-4b0c-80b0-60aa8207cf9e"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="7f609dec-f5f3-4daa-ad8f-d79c97d43c87"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7F516F13-F904-42FA-A2EA-3B9438A2D919}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -12555,23 +12572,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{02C0A60A-E9F6-4356-B490-6C805E531F47}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="b16925a2-092a-4b0c-80b0-60aa8207cf9e"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="7f609dec-f5f3-4daa-ad8f-d79c97d43c87"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{459A9B67-59B6-46F4-93E9-FF358916E5BC}">
   <ds:schemaRefs>
